--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/123/word_level_predictions_123.xlsx
@@ -537,11 +537,11 @@
         </is>
       </c>
       <c r="I2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K2" s="2" t="b">
@@ -589,11 +589,11 @@
         </is>
       </c>
       <c r="I3" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K3" s="2" t="b">
@@ -641,11 +641,11 @@
         </is>
       </c>
       <c r="I4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K4" s="2" t="b">
@@ -693,11 +693,11 @@
         </is>
       </c>
       <c r="I5" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K5" s="2" t="b">
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="I6" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K6" s="2" t="b">
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="I7" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K7" s="2" t="b">
@@ -849,11 +849,11 @@
         </is>
       </c>
       <c r="I8" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K8" s="2" t="b">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="I9" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K9" s="2" t="b">
@@ -953,11 +953,11 @@
         </is>
       </c>
       <c r="I10" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K10" s="2" t="b">
@@ -1005,11 +1005,11 @@
         </is>
       </c>
       <c r="I11" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K11" s="2" t="b">
@@ -1057,11 +1057,11 @@
         </is>
       </c>
       <c r="I12" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K12" s="2" t="b">
@@ -1109,11 +1109,11 @@
         </is>
       </c>
       <c r="I13" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K13" s="2" t="b">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="I14" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K14" s="2" t="b">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -4501,109 +4501,109 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>Taking</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G121" s="2" t="b">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="F122" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G122" s="2" t="b">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="L122" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G124" s="2" t="b">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G125" s="2" t="b">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9446,678 +9446,678 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="inlineStr">
+      <c r="D174" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" t="inlineStr">
+      <c r="D175" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10694,314 +10694,314 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>18</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>18</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="D199" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" t="n">
         <v>18</v>
       </c>
-      <c r="B200" s="2" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C200" s="2" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D200" s="2" t="n">
+      <c r="D200" t="n">
         <v>2</v>
       </c>
-      <c r="E200" s="2" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F200" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G200" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" s="2" t="inlineStr">
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G200" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I200" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L200" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K200" t="b">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" t="n">
         <v>18</v>
       </c>
-      <c r="B201" s="2" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C201" s="2" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>at</t>
         </is>
       </c>
-      <c r="D201" s="2" t="n">
+      <c r="D201" t="n">
         <v>3</v>
       </c>
-      <c r="E201" s="2" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F201" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G201" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" s="2" t="inlineStr">
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G201" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I201" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L201" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K201" t="b">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" t="n">
         <v>18</v>
       </c>
-      <c r="B202" s="2" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C202" s="2" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D202" s="2" t="n">
+      <c r="D202" t="n">
         <v>4</v>
       </c>
-      <c r="E202" s="2" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F202" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G202" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" s="2" t="inlineStr">
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G202" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I202" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L202" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K202" t="b">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" t="n">
         <v>18</v>
       </c>
-      <c r="B203" s="2" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C203" s="2" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D203" s="2" t="n">
+      <c r="D203" t="n">
         <v>5</v>
       </c>
-      <c r="E203" s="2" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F203" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G203" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" s="2" t="inlineStr">
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L203" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11318,106 +11318,106 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="inlineStr">
+      <c r="D210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="D211" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -12202,314 +12202,314 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" t="n">
         <v>20</v>
       </c>
-      <c r="B227" s="2" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C227" s="2" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D227" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E227" s="2" t="inlineStr">
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F227" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I227" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K227" t="b">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" t="n">
         <v>20</v>
       </c>
-      <c r="B228" s="2" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C228" s="2" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D228" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E228" s="2" t="inlineStr">
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F228" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" s="2" t="inlineStr">
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I228" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K228" t="b">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
+      <c r="A229" t="n">
         <v>20</v>
       </c>
-      <c r="B229" s="2" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C229" s="2" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D229" s="2" t="n">
+      <c r="D229" t="n">
         <v>2</v>
       </c>
-      <c r="E229" s="2" t="inlineStr">
+      <c r="E229" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F229" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G229" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" s="2" t="inlineStr">
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G229" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I229" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L229" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I229" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K229" t="b">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" t="n">
         <v>20</v>
       </c>
-      <c r="B230" s="2" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C230" s="2" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>at</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" t="n">
         <v>3</v>
       </c>
-      <c r="E230" s="2" t="inlineStr">
+      <c r="E230" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F230" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" s="2" t="inlineStr">
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L230" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I230" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" t="n">
         <v>20</v>
       </c>
-      <c r="B231" s="2" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
+      <c r="D231" t="n">
         <v>4</v>
       </c>
-      <c r="E231" s="2" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F231" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" s="2" t="inlineStr">
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L231" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
+      <c r="A232" t="n">
         <v>20</v>
       </c>
-      <c r="B232" s="2" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C232" s="2" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D232" s="2" t="n">
+      <c r="D232" t="n">
         <v>5</v>
       </c>
-      <c r="E232" s="2" t="inlineStr">
+      <c r="E232" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F232" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G232" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" s="2" t="inlineStr">
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I232" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L232" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I232" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K232" t="b">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/123/word_level_predictions_123.xlsx
@@ -537,11 +537,11 @@
         </is>
       </c>
       <c r="I2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K2" s="2" t="b">
@@ -589,11 +589,11 @@
         </is>
       </c>
       <c r="I3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K3" s="2" t="b">
@@ -641,11 +641,11 @@
         </is>
       </c>
       <c r="I4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K4" s="2" t="b">
@@ -693,11 +693,11 @@
         </is>
       </c>
       <c r="I5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K5" s="2" t="b">
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="I6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K6" s="2" t="b">
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="I7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K7" s="2" t="b">
@@ -849,11 +849,11 @@
         </is>
       </c>
       <c r="I8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K8" s="2" t="b">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="I9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K9" s="2" t="b">
@@ -953,11 +953,11 @@
         </is>
       </c>
       <c r="I10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K10" s="2" t="b">
@@ -1005,11 +1005,11 @@
         </is>
       </c>
       <c r="I11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K11" s="2" t="b">
@@ -1057,11 +1057,11 @@
         </is>
       </c>
       <c r="I12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K12" s="2" t="b">
@@ -1109,11 +1109,11 @@
         </is>
       </c>
       <c r="I13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K13" s="2" t="b">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="I14" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K14" s="2" t="b">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4477,133 +4477,133 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>7</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Home Point Recorded Taking off .</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Taking</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Home Point Recorded Taking off .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>4</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>Home Point Recorded Taking off .</t>
-        </is>
-      </c>
-      <c r="C79" s="2" t="inlineStr">
-        <is>
-          <t>Taking</t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Home Point Recorded Taking off .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G121" s="2" t="b">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="F122" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G122" s="2" t="b">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="L122" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G124" s="2" t="b">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G125" s="2" t="b">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9446,678 +9446,678 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>16</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" s="2" t="inlineStr">
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" s="2" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>16</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" s="2" t="inlineStr">
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>16</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>2</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" t="n">
         <v>16</v>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" s="2" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
+      <c r="D177" t="n">
         <v>3</v>
       </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" t="n">
         <v>16</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" t="n">
         <v>4</v>
       </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>16</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>5</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>16</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>6</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>16</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>7</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>16</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>8</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>16</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>9</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>16</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>10</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>16</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>11</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>16</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>12</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10694,314 +10694,314 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
+      <c r="I198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>ActiveTrack</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
+      <c r="I199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B200" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>ActiveTrack</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" t="inlineStr">
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="F200" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G200" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I200" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J200" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E201" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
+      <c r="I201" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J201" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L201" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G202" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
+      <c r="I202" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J202" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L202" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B203" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D200" t="n">
-        <v>2</v>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G200" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" t="inlineStr">
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I200" t="b">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K200" t="b">
-        <v>1</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>18</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
-        <v>3</v>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G201" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I201" t="b">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K201" t="b">
-        <v>1</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>18</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="D202" t="n">
-        <v>4</v>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G202" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I202" t="b">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K202" t="b">
-        <v>1</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>18</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>5</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I203" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11318,106 +11318,106 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>19</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" s="2" t="inlineStr">
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" s="2" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>19</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -12202,314 +12202,314 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D227" t="n">
-        <v>0</v>
-      </c>
-      <c r="E227" t="inlineStr">
+      <c r="D227" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" t="inlineStr">
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I227" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr">
+      <c r="I227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>ActiveTrack</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K227" t="b">
-        <v>1</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
+      <c r="I228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B229" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>ActiveTrack</t>
-        </is>
-      </c>
-      <c r="D228" t="n">
-        <v>1</v>
-      </c>
-      <c r="E228" t="inlineStr">
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E229" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
+      <c r="F229" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L229" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E230" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G228" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" t="inlineStr">
+      <c r="F230" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I228" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr">
+      <c r="I230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B231" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C231" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E231" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F231" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K228" t="b">
-        <v>1</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
+      <c r="I231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B232" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D229" t="n">
-        <v>2</v>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G229" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" t="inlineStr">
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E232" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F232" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G232" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I229" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K229" t="b">
-        <v>1</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>20</v>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="D230" t="n">
-        <v>3</v>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K230" t="b">
-        <v>1</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>20</v>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="D231" t="n">
-        <v>4</v>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>20</v>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D232" t="n">
-        <v>5</v>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G232" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I232" t="b">
-        <v>1</v>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K232" t="b">
-        <v>1</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I232" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L232" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
